--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/24_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/24_455-55R22.xlsx
@@ -1475,100 +1475,100 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.4227059363421588</v>
+        <v>0.3567182097284405</v>
       </c>
       <c r="CO2">
-        <v>0.06578473301828035</v>
+        <v>0.06395894142612435</v>
       </c>
       <c r="CP2">
-        <v>0.1275153822730551</v>
+        <v>0.11459258139863</v>
       </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>0.0002980130044670403</v>
       </c>
       <c r="CR2">
-        <v>0.04269178916126325</v>
+        <v>0.04501730029198302</v>
       </c>
       <c r="CS2">
-        <v>0.06484576086461655</v>
+        <v>0.06318876358826298</v>
       </c>
       <c r="CT2">
-        <v>0.1053691451084542</v>
+        <v>0.09642746224185407</v>
       </c>
       <c r="CU2">
-        <v>0</v>
+        <v>0.004106161240877379</v>
       </c>
       <c r="CV2">
-        <v>0</v>
+        <v>0.0005363933658531091</v>
       </c>
       <c r="CW2">
-        <v>0.06304419831828581</v>
+        <v>0.0617110589073616</v>
       </c>
       <c r="CX2">
-        <v>0.005957675852389435</v>
+        <v>0.01488669433781219</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>0.002946220828399024</v>
       </c>
       <c r="CZ2">
-        <v>0.03890336911065064</v>
+        <v>0.04190990551770073</v>
       </c>
       <c r="DA2">
-        <v>0.00795597562398411</v>
+        <v>0.01652576977948574</v>
       </c>
       <c r="DB2">
-        <v>0.03669751311926647</v>
+        <v>0.0401005851971259</v>
       </c>
       <c r="DC2">
-        <v>0</v>
+        <v>0.002900344638749707</v>
       </c>
       <c r="DD2">
-        <v>0</v>
+        <v>0.001169557646398086</v>
       </c>
       <c r="DE2">
-        <v>0</v>
+        <v>1.038256745920886E-07</v>
       </c>
       <c r="DF2">
-        <v>0</v>
+        <v>0.002763493209442869</v>
       </c>
       <c r="DG2">
-        <v>0.01012588600595163</v>
+        <v>0.01830560625260768</v>
       </c>
       <c r="DH2">
-        <v>0</v>
+        <v>0.0002237698046187142</v>
       </c>
       <c r="DI2">
-        <v>0</v>
+        <v>0.00308129725959876</v>
       </c>
       <c r="DJ2">
-        <v>0</v>
+        <v>0.00915332482534446</v>
       </c>
       <c r="DK2">
-        <v>0</v>
+        <v>0.002244091389413375</v>
       </c>
       <c r="DL2">
-        <v>0</v>
+        <v>0.004145347294635548</v>
       </c>
       <c r="DM2">
-        <v>0</v>
+        <v>0.003816177882570636</v>
       </c>
       <c r="DN2">
-        <v>0</v>
+        <v>0.000306405885765385</v>
       </c>
       <c r="DO2">
-        <v>0</v>
+        <v>8.958366940752072E-05</v>
       </c>
       <c r="DP2">
-        <v>0.003794644870401417</v>
+        <v>0.01311250058943062</v>
       </c>
       <c r="DQ2">
-        <v>0</v>
+        <v>0.0007614071347895853</v>
       </c>
       <c r="DR2">
-        <v>0.004607990331242381</v>
+        <v>0.01377963501511152</v>
       </c>
       <c r="DS2">
-        <v>0</v>
+        <v>0.00122329282206334</v>
       </c>
     </row>
     <row r="3" spans="1:123">
@@ -1846,100 +1846,100 @@
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01640721081252504</v>
+        <v>0.02339288499246501</v>
       </c>
       <c r="CO3">
-        <v>0.3130748243644427</v>
+        <v>0.2655568502568582</v>
       </c>
       <c r="CP3">
-        <v>0.2769117236781629</v>
+        <v>0.2360376191092612</v>
       </c>
       <c r="CQ3">
-        <v>0.08029580102114885</v>
+        <v>0.07554389047242337</v>
       </c>
       <c r="CR3">
-        <v>0</v>
+        <v>0.002189518180331329</v>
       </c>
       <c r="CS3">
-        <v>0.1137928369315358</v>
+        <v>0.102886865135357</v>
       </c>
       <c r="CT3">
-        <v>0.01526593092326119</v>
+        <v>0.02246128056098812</v>
       </c>
       <c r="CU3">
-        <v>0.05177677722200827</v>
+        <v>0.05226436964444171</v>
       </c>
       <c r="CV3">
-        <v>0</v>
+        <v>0.005944504208247878</v>
       </c>
       <c r="CW3">
-        <v>0.004719985190078639</v>
+        <v>0.01385283151043591</v>
       </c>
       <c r="CX3">
-        <v>0.03340220612611006</v>
+        <v>0.03726556696645235</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>0.0002639817189867052</v>
       </c>
       <c r="CZ3">
-        <v>0</v>
+        <v>0.006119492079476613</v>
       </c>
       <c r="DA3">
-        <v>0.04700210166907482</v>
+        <v>0.04836689546144676</v>
       </c>
       <c r="DB3">
-        <v>0.01021753106551277</v>
+        <v>0.01834037058650381</v>
       </c>
       <c r="DC3">
-        <v>0.03713307099613899</v>
+        <v>0.04031099892302727</v>
       </c>
       <c r="DD3">
-        <v>0</v>
+        <v>7.574869835412356E-05</v>
       </c>
       <c r="DE3">
-        <v>0</v>
+        <v>0.001100362526364193</v>
       </c>
       <c r="DF3">
-        <v>0</v>
+        <v>0.009253012436003238</v>
       </c>
       <c r="DG3">
-        <v>0</v>
+        <v>0.0005266586096471618</v>
       </c>
       <c r="DH3">
-        <v>0</v>
+        <v>0.00755279195276469</v>
       </c>
       <c r="DI3">
-        <v>0</v>
+        <v>2.695567973801604E-05</v>
       </c>
       <c r="DJ3">
-        <v>0</v>
+        <v>0.00998818182695166</v>
       </c>
       <c r="DK3">
-        <v>0</v>
+        <v>0.0008938109409172199</v>
       </c>
       <c r="DL3">
-        <v>0</v>
+        <v>0.002706793893936134</v>
       </c>
       <c r="DM3">
-        <v>0</v>
+        <v>0.00218066895135813</v>
       </c>
       <c r="DN3">
-        <v>0</v>
+        <v>0.004672343917952216</v>
       </c>
       <c r="DO3">
-        <v>0</v>
+        <v>9.469245850352081E-08</v>
       </c>
       <c r="DP3">
-        <v>0</v>
+        <v>0.0005000673267325165</v>
       </c>
       <c r="DQ3">
-        <v>0</v>
+        <v>0.005204283668305289</v>
       </c>
       <c r="DR3">
-        <v>0</v>
+        <v>0.002609198534974438</v>
       </c>
       <c r="DS3">
-        <v>0</v>
+        <v>0.001911106536839062</v>
       </c>
     </row>
     <row r="4" spans="1:123">
@@ -2025,100 +2025,100 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04895182667398544</v>
+        <v>0.04615083956844285</v>
       </c>
       <c r="AC4">
-        <v>0.05151734615735443</v>
+        <v>0.04804547128199797</v>
       </c>
       <c r="AD4">
-        <v>0.03503350416128496</v>
+        <v>0.03587218239862008</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.001203095065043166</v>
       </c>
       <c r="AF4">
-        <v>0.008705892759931071</v>
+        <v>0.0164292867876081</v>
       </c>
       <c r="AG4">
-        <v>0.003232438266502352</v>
+        <v>0.01238715008462233</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.0001004482703748553</v>
       </c>
       <c r="AI4">
-        <v>0.007694559960135596</v>
+        <v>0.01568241925926845</v>
       </c>
       <c r="AJ4">
-        <v>0.05804362605112446</v>
+        <v>0.05286511772726159</v>
       </c>
       <c r="AK4">
-        <v>0.09396087758704909</v>
+        <v>0.07938994603779836</v>
       </c>
       <c r="AL4">
-        <v>0.03167887734882384</v>
+        <v>0.03339479628355348</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.003661913117390447</v>
       </c>
       <c r="AN4">
-        <v>0.02517993074788459</v>
+        <v>0.02859533542790195</v>
       </c>
       <c r="AO4">
-        <v>0.07136494053934149</v>
+        <v>0.06270288550070062</v>
       </c>
       <c r="AP4">
-        <v>0.09460081614613614</v>
+        <v>0.07986253955994185</v>
       </c>
       <c r="AQ4">
-        <v>0.1196221764025613</v>
+        <v>0.09834077095339749</v>
       </c>
       <c r="AR4">
-        <v>0.09360085364101749</v>
+        <v>0.07912406897460998</v>
       </c>
       <c r="AS4">
-        <v>0.01505105183086493</v>
+        <v>0.02111517581759768</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.001745509004377131</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>0.003372873548027129</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>0.002370887334828736</v>
       </c>
       <c r="AW4">
-        <v>0.01703112177042816</v>
+        <v>0.02257745405281392</v>
       </c>
       <c r="AX4">
-        <v>0.03039226896215791</v>
+        <v>0.03244463820909513</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>0.00852757241568995</v>
       </c>
       <c r="AZ4">
-        <v>0.01045613837458238</v>
+        <v>0.01772184015526936</v>
       </c>
       <c r="BA4">
-        <v>0.01144984248885231</v>
+        <v>0.0184556889297537</v>
       </c>
       <c r="BB4">
-        <v>0.08398838992224139</v>
+        <v>0.07202528109751481</v>
       </c>
       <c r="BC4">
-        <v>0.05552912717028268</v>
+        <v>0.05100816464067436</v>
       </c>
       <c r="BD4">
-        <v>0.02079649589407237</v>
+        <v>0.02535817634874751</v>
       </c>
       <c r="BE4">
-        <v>0.00175321620015875</v>
+        <v>0.01129474713993495</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>0.0005194260071863366</v>
       </c>
       <c r="BG4">
-        <v>0.01036468094322692</v>
+        <v>0.01765429899995574</v>
       </c>
       <c r="BH4">
         <v>0</v>
@@ -2588,100 +2588,100 @@
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.3720174631488403</v>
+        <v>0.32604483153965</v>
       </c>
       <c r="CO5">
-        <v>0.09856167432464744</v>
+        <v>0.09373238044939922</v>
       </c>
       <c r="CP5">
-        <v>0.1922017922463169</v>
+        <v>0.1732836871096099</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>0.005562970884260374</v>
       </c>
       <c r="CR5">
-        <v>0.0749929756845335</v>
+        <v>0.07370975751047709</v>
       </c>
       <c r="CS5">
-        <v>0.06528056731492549</v>
+        <v>0.06545864897101331</v>
       </c>
       <c r="CT5">
-        <v>0.03436211242205402</v>
+        <v>0.03919209205894085</v>
       </c>
       <c r="CU5">
-        <v>0</v>
+        <v>7.300786077156319E-05</v>
       </c>
       <c r="CV5">
-        <v>0</v>
+        <v>0.000290827843273469</v>
       </c>
       <c r="CW5">
-        <v>0.03683042264633811</v>
+        <v>0.04128902773077341</v>
       </c>
       <c r="CX5">
-        <v>0</v>
+        <v>0.006515147132460577</v>
       </c>
       <c r="CY5">
-        <v>0</v>
+        <v>3.821318822916594E-05</v>
       </c>
       <c r="CZ5">
-        <v>0.04631611148075868</v>
+        <v>0.04934752827625065</v>
       </c>
       <c r="DA5">
-        <v>0</v>
+        <v>0.003984630915248993</v>
       </c>
       <c r="DB5">
-        <v>0.07132536454217549</v>
+        <v>0.07059396413930483</v>
       </c>
       <c r="DC5">
-        <v>0</v>
+        <v>2.713576673446493E-05</v>
       </c>
       <c r="DD5">
-        <v>0</v>
+        <v>0.000280845920775241</v>
       </c>
       <c r="DE5">
-        <v>0</v>
+        <v>0.006523560422246951</v>
       </c>
       <c r="DF5">
-        <v>0</v>
+        <v>0.003597813530069287</v>
       </c>
       <c r="DG5">
-        <v>0</v>
+        <v>0.00481779378889576</v>
       </c>
       <c r="DH5">
-        <v>0</v>
+        <v>0.000214294316709579</v>
       </c>
       <c r="DI5">
-        <v>0.008111516189410294</v>
+        <v>0.01689108179469427</v>
       </c>
       <c r="DJ5">
-        <v>0</v>
+        <v>0.0014358460403652</v>
       </c>
       <c r="DK5">
-        <v>0</v>
+        <v>0.002935648094329256</v>
       </c>
       <c r="DL5">
-        <v>0</v>
+        <v>8.461481814797731E-07</v>
       </c>
       <c r="DM5">
-        <v>0</v>
+        <v>0.0009716298317245193</v>
       </c>
       <c r="DN5">
-        <v>0</v>
+        <v>1.209896720360015E-07</v>
       </c>
       <c r="DO5">
-        <v>0</v>
+        <v>0.001719752789419639</v>
       </c>
       <c r="DP5">
-        <v>0</v>
+        <v>0.005291770534526575</v>
       </c>
       <c r="DQ5">
-        <v>0</v>
+        <v>0.002364350191274714</v>
       </c>
       <c r="DR5">
-        <v>0</v>
+        <v>0.003785612128545493</v>
       </c>
       <c r="DS5">
-        <v>0</v>
+        <v>2.51821021723001E-05</v>
       </c>
     </row>
     <row r="6" spans="1:123">
@@ -2959,100 +2959,100 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.003910122905935161</v>
+        <v>0.0130890603795321</v>
       </c>
       <c r="CO6">
-        <v>0.2546542562376047</v>
+        <v>0.2111809839094211</v>
       </c>
       <c r="CP6">
-        <v>0.3026242938100749</v>
+        <v>0.2490780899683787</v>
       </c>
       <c r="CQ6">
-        <v>0.08164550971450804</v>
+        <v>0.07450127407580073</v>
       </c>
       <c r="CR6">
-        <v>0</v>
+        <v>0.0009090244156250427</v>
       </c>
       <c r="CS6">
-        <v>0.09043133490418438</v>
+        <v>0.08144221817086453</v>
       </c>
       <c r="CT6">
-        <v>0</v>
+        <v>0.004617870559962047</v>
       </c>
       <c r="CU6">
-        <v>0.01483144740039066</v>
+        <v>0.02171708348761069</v>
       </c>
       <c r="CV6">
-        <v>0</v>
+        <v>0.001545093473513446</v>
       </c>
       <c r="CW6">
-        <v>0.01363764945311798</v>
+        <v>0.02077396378810221</v>
       </c>
       <c r="CX6">
-        <v>0.02872881380570465</v>
+        <v>0.03269622787136726</v>
       </c>
       <c r="CY6">
-        <v>0</v>
+        <v>0.009378717632377406</v>
       </c>
       <c r="CZ6">
-        <v>0</v>
+        <v>0.001209738228084959</v>
       </c>
       <c r="DA6">
-        <v>0.07909232820890717</v>
+        <v>0.07248421936411016</v>
       </c>
       <c r="DB6">
-        <v>0</v>
+        <v>0.001335932176163091</v>
       </c>
       <c r="DC6">
-        <v>0.1016483482845942</v>
+        <v>0.09030384028445849</v>
       </c>
       <c r="DD6">
-        <v>0</v>
+        <v>0.005156950064704137</v>
       </c>
       <c r="DE6">
-        <v>0</v>
+        <v>0.008903329558653188</v>
       </c>
       <c r="DF6">
-        <v>0.002785089037388248</v>
+        <v>0.01220026541513728</v>
       </c>
       <c r="DG6">
-        <v>0</v>
+        <v>0.004708377490833772</v>
       </c>
       <c r="DH6">
-        <v>0</v>
+        <v>0.008742903517722393</v>
       </c>
       <c r="DI6">
-        <v>0.01492916609074375</v>
+        <v>0.02179428283452925</v>
       </c>
       <c r="DJ6">
-        <v>0</v>
+        <v>0.004428327556496421</v>
       </c>
       <c r="DK6">
-        <v>0</v>
+        <v>0.007209069025696987</v>
       </c>
       <c r="DL6">
-        <v>0</v>
+        <v>0.0005649248799325489</v>
       </c>
       <c r="DM6">
-        <v>0.0005975447083740931</v>
+        <v>0.01047206999064803</v>
       </c>
       <c r="DN6">
-        <v>0.01048409543847212</v>
+        <v>0.01828260507746672</v>
       </c>
       <c r="DO6">
-        <v>0</v>
+        <v>0.004269457801364067</v>
       </c>
       <c r="DP6">
-        <v>0</v>
+        <v>0.0017307884190595</v>
       </c>
       <c r="DQ6">
-        <v>0</v>
+        <v>0.004321686658571104</v>
       </c>
       <c r="DR6">
-        <v>0</v>
+        <v>2.327662241604865E-05</v>
       </c>
       <c r="DS6">
-        <v>0</v>
+        <v>0.0009283473013965643</v>
       </c>
     </row>
     <row r="7" spans="1:123">
@@ -3330,100 +3330,100 @@
         <v>0</v>
       </c>
       <c r="CN7">
-        <v>0.461778709020924</v>
+        <v>0.3838799781225991</v>
       </c>
       <c r="CO7">
-        <v>0.05690133223138657</v>
+        <v>0.05607026793184954</v>
       </c>
       <c r="CP7">
-        <v>0.1991492003254553</v>
+        <v>0.171241515050969</v>
       </c>
       <c r="CQ7">
-        <v>0.02102393363326627</v>
+        <v>0.0270220663995585</v>
       </c>
       <c r="CR7">
-        <v>0.01250122488721562</v>
+        <v>0.02012163964260657</v>
       </c>
       <c r="CS7">
-        <v>0.01752226808348539</v>
+        <v>0.02418693646920604</v>
       </c>
       <c r="CT7">
-        <v>0</v>
+        <v>0.008771141911116834</v>
       </c>
       <c r="CU7">
-        <v>0</v>
+        <v>0.004897131578186805</v>
       </c>
       <c r="CV7">
-        <v>0.01493984072489518</v>
+        <v>0.02209606942516232</v>
       </c>
       <c r="CW7">
-        <v>0.09814261182854754</v>
+        <v>0.08946134554611837</v>
       </c>
       <c r="CX7">
-        <v>0.02863857278314177</v>
+        <v>0.03318727294362621</v>
       </c>
       <c r="CY7">
-        <v>0.01764154521224223</v>
+        <v>0.02428350941511923</v>
       </c>
       <c r="CZ7">
-        <v>0.018115193907589</v>
+        <v>0.02466699994942626</v>
       </c>
       <c r="DA7">
-        <v>0</v>
+        <v>0.004676795527461013</v>
       </c>
       <c r="DB7">
-        <v>0.04951055084200933</v>
+        <v>0.05008630823386341</v>
       </c>
       <c r="DC7">
-        <v>0</v>
+        <v>0.004198270479350147</v>
       </c>
       <c r="DD7">
-        <v>0</v>
+        <v>0.001425387416390222</v>
       </c>
       <c r="DE7">
-        <v>0</v>
+        <v>1.247146025219349E-06</v>
       </c>
       <c r="DF7">
-        <v>0</v>
+        <v>0.0007157053519124985</v>
       </c>
       <c r="DG7">
-        <v>0.003330863892020184</v>
+        <v>0.01269684005509538</v>
       </c>
       <c r="DH7">
-        <v>0</v>
+        <v>1.851968682403236E-05</v>
       </c>
       <c r="DI7">
-        <v>0</v>
+        <v>0.000365742840733362</v>
       </c>
       <c r="DJ7">
-        <v>0</v>
+        <v>0.005244993127300775</v>
       </c>
       <c r="DK7">
-        <v>0</v>
+        <v>0.0001480231168070097</v>
       </c>
       <c r="DL7">
-        <v>0</v>
+        <v>0.00146632699906825</v>
       </c>
       <c r="DM7">
-        <v>0</v>
+        <v>0.001070024056383159</v>
       </c>
       <c r="DN7">
-        <v>0</v>
+        <v>0.004770101936011067</v>
       </c>
       <c r="DO7">
-        <v>0</v>
+        <v>0.005147130303781904</v>
       </c>
       <c r="DP7">
-        <v>0</v>
+        <v>0.006986482740428975</v>
       </c>
       <c r="DQ7">
-        <v>0</v>
+        <v>0.0003043700357987886</v>
       </c>
       <c r="DR7">
-        <v>0.0008041526278216472</v>
+        <v>0.01065108364899423</v>
       </c>
       <c r="DS7">
-        <v>0</v>
+        <v>0.0001407729122258994</v>
       </c>
     </row>
     <row r="8" spans="1:123">
@@ -3701,100 +3701,100 @@
         <v>0</v>
       </c>
       <c r="CN8">
-        <v>0.3758820627906678</v>
+        <v>0.3141651032230678</v>
       </c>
       <c r="CO8">
-        <v>0.009418839479114857</v>
+        <v>0.01762175843437881</v>
       </c>
       <c r="CP8">
-        <v>0.2700306510658353</v>
+        <v>0.2285097640601519</v>
       </c>
       <c r="CQ8">
-        <v>0.03518096193417433</v>
+        <v>0.03846855962944511</v>
       </c>
       <c r="CR8">
-        <v>0</v>
+        <v>0.007173320874435759</v>
       </c>
       <c r="CS8">
-        <v>0</v>
+        <v>0.007708124729714113</v>
       </c>
       <c r="CT8">
-        <v>0.003335073914468975</v>
+        <v>0.01269875368332208</v>
       </c>
       <c r="CU8">
-        <v>0</v>
+        <v>0.0003526181527264481</v>
       </c>
       <c r="CV8">
-        <v>0</v>
+        <v>0.005233271027093307</v>
       </c>
       <c r="CW8">
-        <v>0.1833047140175732</v>
+        <v>0.1583308270857301</v>
       </c>
       <c r="CX8">
-        <v>0.01169705877078184</v>
+        <v>0.01946530159488494</v>
       </c>
       <c r="CY8">
-        <v>0</v>
+        <v>0.006409102599151425</v>
       </c>
       <c r="CZ8">
-        <v>0.03339856409040426</v>
+        <v>0.03702623694953362</v>
       </c>
       <c r="DA8">
-        <v>0</v>
+        <v>0.004046251688679935</v>
       </c>
       <c r="DB8">
-        <v>0.03386005008823283</v>
+        <v>0.03739967306171038</v>
       </c>
       <c r="DC8">
-        <v>0.02161606285478335</v>
+        <v>0.02749179500795466</v>
       </c>
       <c r="DD8">
-        <v>0</v>
+        <v>0.002577442618067398</v>
       </c>
       <c r="DE8">
-        <v>0</v>
+        <v>3.277503123290525E-08</v>
       </c>
       <c r="DF8">
-        <v>0</v>
+        <v>0.0002980296251711004</v>
       </c>
       <c r="DG8">
-        <v>0.01084042871778057</v>
+        <v>0.0187721135066834</v>
       </c>
       <c r="DH8">
-        <v>0.01143553227618274</v>
+        <v>0.01925367342450959</v>
       </c>
       <c r="DI8">
-        <v>0</v>
+        <v>0.0004859674073083899</v>
       </c>
       <c r="DJ8">
-        <v>0</v>
+        <v>0.001653664879857438</v>
       </c>
       <c r="DK8">
-        <v>0</v>
+        <v>0.005128104012831007</v>
       </c>
       <c r="DL8">
-        <v>0</v>
+        <v>0.0009688612806297553</v>
       </c>
       <c r="DM8">
-        <v>0</v>
+        <v>0.007580376368685728</v>
       </c>
       <c r="DN8">
-        <v>0</v>
+        <v>0.009883096242575391</v>
       </c>
       <c r="DO8">
-        <v>0</v>
+        <v>0.0001052831695778818</v>
       </c>
       <c r="DP8">
-        <v>0</v>
+        <v>3.630779246092847E-05</v>
       </c>
       <c r="DQ8">
-        <v>0</v>
+        <v>0.0001287703865398159</v>
       </c>
       <c r="DR8">
-        <v>0</v>
+        <v>0.008495978818121254</v>
       </c>
       <c r="DS8">
-        <v>0</v>
+        <v>0.002531835889969308</v>
       </c>
     </row>
     <row r="9" spans="1:123">
@@ -3808,10 +3808,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007987760524222634</v>
+        <v>0.01326566651083248</v>
       </c>
       <c r="E9">
-        <v>0.00453975399832735</v>
+        <v>0.01026454490633611</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3823,19 +3823,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004078741130203613</v>
       </c>
       <c r="J9">
-        <v>0.01512657448916611</v>
+        <v>0.01947924199561478</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0008384225538993346</v>
       </c>
       <c r="L9">
-        <v>0.00609759000219267</v>
+        <v>0.01162047484798509</v>
       </c>
       <c r="M9">
-        <v>0.007332342217212072</v>
+        <v>0.01269519484078798</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -3844,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.03778707520372318</v>
+        <v>0.03920278884867783</v>
       </c>
       <c r="Q9">
-        <v>0.04404582833225529</v>
+        <v>0.04465036532226639</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -3856,52 +3856,52 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.003491024361690883</v>
+        <v>0.009351737710019065</v>
       </c>
       <c r="U9">
-        <v>0.003317046282051272</v>
+        <v>0.009200308363933457</v>
       </c>
       <c r="V9">
-        <v>0.01126673841239092</v>
+        <v>0.01611966673007297</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.009875944117437821</v>
+        <v>0.01490912876425218</v>
       </c>
       <c r="Y9">
-        <v>0.1782880695704287</v>
+        <v>0.1614939058985965</v>
       </c>
       <c r="Z9">
-        <v>0.1451782029382308</v>
+        <v>0.1326753014888842</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.2108388470653761</v>
+        <v>0.1898258828973569</v>
       </c>
       <c r="AC9">
-        <v>0.1437184248886456</v>
+        <v>0.1314047205287039</v>
       </c>
       <c r="AD9">
-        <v>0.02036887272296248</v>
+        <v>0.02404210299036722</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.003905301254586739</v>
+        <v>0.009712321521034493</v>
       </c>
       <c r="AG9">
-        <v>0.07128570602643147</v>
+        <v>0.06835977098547187</v>
       </c>
       <c r="AH9">
-        <v>0.07554889759266786</v>
+        <v>0.07207042414620414</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.00473928701849956</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -4191,100 +4191,100 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01688681928300778</v>
+        <v>0.02308468154973721</v>
       </c>
       <c r="I10">
-        <v>0.003915642227902274</v>
+        <v>0.01303401906280596</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.007559856490143872</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.008704194258051516</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0002582876435199505</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0005546691632663236</v>
       </c>
       <c r="N10">
-        <v>0.0009440514097819886</v>
+        <v>0.01073149430076554</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.001793011886010114</v>
       </c>
       <c r="P10">
-        <v>0.0009239375515069308</v>
+        <v>0.01071590916150071</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.003413993296527287</v>
       </c>
       <c r="R10">
-        <v>0.01811239923886058</v>
+        <v>0.02403431707122415</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.002370989470977946</v>
       </c>
       <c r="T10">
-        <v>0.009875518925390028</v>
+        <v>0.01765200468552157</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.00753073944209128</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.003580547246365944</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.002080844859061295</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.006403429002535556</v>
       </c>
       <c r="Y10">
-        <v>0.09587008542845275</v>
+        <v>0.08428453617903432</v>
       </c>
       <c r="Z10">
-        <v>0.07938523972794662</v>
+        <v>0.07151132218457164</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1.524629351925498E-05</v>
       </c>
       <c r="AB10">
-        <v>0.130184786311819</v>
+        <v>0.1108731391603626</v>
       </c>
       <c r="AC10">
-        <v>0.1670152033993596</v>
+        <v>0.1394110343588617</v>
       </c>
       <c r="AD10">
-        <v>0.08885483533886847</v>
+        <v>0.07884879888146396</v>
       </c>
       <c r="AE10">
-        <v>0.03021873723961117</v>
+        <v>0.03341486262089437</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.0008830143895290342</v>
       </c>
       <c r="AG10">
-        <v>0.03119652475259536</v>
+        <v>0.03417249720063915</v>
       </c>
       <c r="AH10">
-        <v>0.01677827151378841</v>
+        <v>0.02300057376310394</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>5.343814542426749E-06</v>
       </c>
       <c r="AJ10">
-        <v>0.01508370930701963</v>
+        <v>0.02168754929886392</v>
       </c>
       <c r="AK10">
-        <v>0.1264396040163877</v>
+        <v>0.1079712002658816</v>
       </c>
       <c r="AL10">
-        <v>0.1284242889234756</v>
+        <v>0.1095090250954483</v>
       </c>
       <c r="AM10">
-        <v>0.03989034540422615</v>
+        <v>0.04090886790317776</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -4616,100 +4616,100 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.1054327513334213</v>
+        <v>0.08745132606304867</v>
       </c>
       <c r="AA11">
-        <v>0.01849740167009705</v>
+        <v>0.02358826616920249</v>
       </c>
       <c r="AB11">
-        <v>0.0260233242146725</v>
+        <v>0.02911683934549965</v>
       </c>
       <c r="AC11">
-        <v>0.1236620836055742</v>
+        <v>0.1008426673670161</v>
       </c>
       <c r="AD11">
-        <v>0.02337912505879444</v>
+        <v>0.02717439993831868</v>
       </c>
       <c r="AE11">
-        <v>0.004660777340113766</v>
+        <v>0.01342382590714002</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.0007090738378018656</v>
       </c>
       <c r="AG11">
-        <v>0.00873571575614345</v>
+        <v>0.01641729216838434</v>
       </c>
       <c r="AH11">
-        <v>0.04299889310594025</v>
+        <v>0.04158716099294916</v>
       </c>
       <c r="AI11">
-        <v>0.01752320267078562</v>
+        <v>0.02287261563944109</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>4.440824285382689E-05</v>
       </c>
       <c r="AK11">
-        <v>0.02091798222311275</v>
+        <v>0.02536643444521204</v>
       </c>
       <c r="AL11">
-        <v>0.07871722121341747</v>
+        <v>0.06782598945651254</v>
       </c>
       <c r="AM11">
-        <v>0.03326472881131717</v>
+        <v>0.03443640448513572</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.005046942098464888</v>
       </c>
       <c r="AO11">
-        <v>0.01028895727151434</v>
+        <v>0.01755830967518557</v>
       </c>
       <c r="AP11">
-        <v>0.06221864929047103</v>
+        <v>0.05570607171351685</v>
       </c>
       <c r="AQ11">
-        <v>0.0999822417429397</v>
+        <v>0.0834473596468906</v>
       </c>
       <c r="AR11">
-        <v>0.1052622505937956</v>
+        <v>0.08732607552930341</v>
       </c>
       <c r="AS11">
-        <v>0.06282101999590088</v>
+        <v>0.05614857567293204</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.001036150696127229</v>
       </c>
       <c r="AU11">
-        <v>0.02134795867549716</v>
+        <v>0.02568229688825635</v>
       </c>
       <c r="AV11">
-        <v>0.01812191769886459</v>
+        <v>0.02331243412347123</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>0.00106821509070922</v>
       </c>
       <c r="AX11">
-        <v>0.01326082918477642</v>
+        <v>0.01974145881680068</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>0.008131957180484456</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>6.68869042220752E-06</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>0.009352514818772382</v>
       </c>
       <c r="BB11">
-        <v>0.002985997882848279</v>
+        <v>0.01219352613607404</v>
       </c>
       <c r="BC11">
-        <v>0.03743835230896095</v>
+        <v>0.03750236520694363</v>
       </c>
       <c r="BD11">
-        <v>0.03808255977724318</v>
+        <v>0.03797560262176164</v>
       </c>
       <c r="BE11">
-        <v>0.02437605857379762</v>
+        <v>0.02790675133536713</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -5569,100 +5569,100 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.4227059363421588</v>
+        <v>0.3567182097284405</v>
       </c>
       <c r="CO2">
-        <v>0.4884906693604392</v>
+        <v>0.4206771511545649</v>
       </c>
       <c r="CP2">
-        <v>0.6160060516334942</v>
+        <v>0.5352697325531949</v>
       </c>
       <c r="CQ2">
-        <v>0.6160060516334942</v>
+        <v>0.535567745557662</v>
       </c>
       <c r="CR2">
-        <v>0.6586978407947575</v>
+        <v>0.580585045849645</v>
       </c>
       <c r="CS2">
-        <v>0.723543601659374</v>
+        <v>0.643773809437908</v>
       </c>
       <c r="CT2">
-        <v>0.8289127467678282</v>
+        <v>0.740201271679762</v>
       </c>
       <c r="CU2">
-        <v>0.8289127467678282</v>
+        <v>0.7443074329206394</v>
       </c>
       <c r="CV2">
-        <v>0.8289127467678282</v>
+        <v>0.7448438262864925</v>
       </c>
       <c r="CW2">
-        <v>0.891956945086114</v>
+        <v>0.8065548851938541</v>
       </c>
       <c r="CX2">
-        <v>0.8979146209385035</v>
+        <v>0.8214415795316663</v>
       </c>
       <c r="CY2">
-        <v>0.8979146209385035</v>
+        <v>0.8243878003600653</v>
       </c>
       <c r="CZ2">
-        <v>0.9368179900491541</v>
+        <v>0.866297705877766</v>
       </c>
       <c r="DA2">
-        <v>0.9447739656731382</v>
+        <v>0.8828234756572517</v>
       </c>
       <c r="DB2">
-        <v>0.9814714787924047</v>
+        <v>0.9229240608543776</v>
       </c>
       <c r="DC2">
-        <v>0.9814714787924047</v>
+        <v>0.9258244054931273</v>
       </c>
       <c r="DD2">
-        <v>0.9814714787924047</v>
+        <v>0.9269939631395253</v>
       </c>
       <c r="DE2">
-        <v>0.9814714787924047</v>
+        <v>0.9269940669651999</v>
       </c>
       <c r="DF2">
-        <v>0.9814714787924047</v>
+        <v>0.9297575601746428</v>
       </c>
       <c r="DG2">
-        <v>0.9915973647983564</v>
+        <v>0.9480631664272505</v>
       </c>
       <c r="DH2">
-        <v>0.9915973647983564</v>
+        <v>0.9482869362318692</v>
       </c>
       <c r="DI2">
-        <v>0.9915973647983564</v>
+        <v>0.9513682334914679</v>
       </c>
       <c r="DJ2">
-        <v>0.9915973647983564</v>
+        <v>0.9605215583168124</v>
       </c>
       <c r="DK2">
-        <v>0.9915973647983564</v>
+        <v>0.9627656497062258</v>
       </c>
       <c r="DL2">
-        <v>0.9915973647983564</v>
+        <v>0.9669109970008614</v>
       </c>
       <c r="DM2">
-        <v>0.9915973647983564</v>
+        <v>0.970727174883432</v>
       </c>
       <c r="DN2">
-        <v>0.9915973647983564</v>
+        <v>0.9710335807691973</v>
       </c>
       <c r="DO2">
-        <v>0.9915973647983564</v>
+        <v>0.9711231644386048</v>
       </c>
       <c r="DP2">
-        <v>0.9953920096687577</v>
+        <v>0.9842356650280354</v>
       </c>
       <c r="DQ2">
-        <v>0.9953920096687577</v>
+        <v>0.9849970721628249</v>
       </c>
       <c r="DR2">
-        <v>1</v>
+        <v>0.9987767071779364</v>
       </c>
       <c r="DS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:123">
@@ -5940,100 +5940,100 @@
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01640721081252504</v>
+        <v>0.02339288499246501</v>
       </c>
       <c r="CO3">
-        <v>0.3294820351769678</v>
+        <v>0.2889497352493232</v>
       </c>
       <c r="CP3">
-        <v>0.6063937588551307</v>
+        <v>0.5249873543585845</v>
       </c>
       <c r="CQ3">
-        <v>0.6866895598762796</v>
+        <v>0.6005312448310078</v>
       </c>
       <c r="CR3">
-        <v>0.6866895598762796</v>
+        <v>0.6027207630113391</v>
       </c>
       <c r="CS3">
-        <v>0.8004823968078154</v>
+        <v>0.7056076281466962</v>
       </c>
       <c r="CT3">
-        <v>0.8157483277310766</v>
+        <v>0.7280689087076844</v>
       </c>
       <c r="CU3">
-        <v>0.8675251049530849</v>
+        <v>0.7803332783521261</v>
       </c>
       <c r="CV3">
-        <v>0.8675251049530849</v>
+        <v>0.786277782560374</v>
       </c>
       <c r="CW3">
-        <v>0.8722450901431635</v>
+        <v>0.8001306140708099</v>
       </c>
       <c r="CX3">
-        <v>0.9056472962692736</v>
+        <v>0.8373961810372622</v>
       </c>
       <c r="CY3">
-        <v>0.9056472962692736</v>
+        <v>0.8376601627562489</v>
       </c>
       <c r="CZ3">
-        <v>0.9056472962692736</v>
+        <v>0.8437796548357255</v>
       </c>
       <c r="DA3">
-        <v>0.9526493979383485</v>
+        <v>0.8921465502971723</v>
       </c>
       <c r="DB3">
-        <v>0.9628669290038613</v>
+        <v>0.9104869208836761</v>
       </c>
       <c r="DC3">
-        <v>1</v>
+        <v>0.9507979198067034</v>
       </c>
       <c r="DD3">
-        <v>1</v>
+        <v>0.9508736685050575</v>
       </c>
       <c r="DE3">
-        <v>1</v>
+        <v>0.9519740310314216</v>
       </c>
       <c r="DF3">
-        <v>1</v>
+        <v>0.9612270434674248</v>
       </c>
       <c r="DG3">
-        <v>1</v>
+        <v>0.961753702077072</v>
       </c>
       <c r="DH3">
-        <v>1</v>
+        <v>0.9693064940298367</v>
       </c>
       <c r="DI3">
-        <v>1</v>
+        <v>0.9693334497095747</v>
       </c>
       <c r="DJ3">
-        <v>1</v>
+        <v>0.9793216315365264</v>
       </c>
       <c r="DK3">
-        <v>1</v>
+        <v>0.9802154424774436</v>
       </c>
       <c r="DL3">
-        <v>1</v>
+        <v>0.9829222363713798</v>
       </c>
       <c r="DM3">
-        <v>1</v>
+        <v>0.9851029053227379</v>
       </c>
       <c r="DN3">
-        <v>1</v>
+        <v>0.9897752492406902</v>
       </c>
       <c r="DO3">
-        <v>1</v>
+        <v>0.9897753439331487</v>
       </c>
       <c r="DP3">
-        <v>1</v>
+        <v>0.9902754112598812</v>
       </c>
       <c r="DQ3">
-        <v>1</v>
+        <v>0.9954796949281864</v>
       </c>
       <c r="DR3">
-        <v>1</v>
+        <v>0.9980888934631609</v>
       </c>
       <c r="DS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:123">
@@ -6119,97 +6119,97 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04895182667398544</v>
+        <v>0.04615083956844285</v>
       </c>
       <c r="AC4">
-        <v>0.1004691728313399</v>
+        <v>0.09419631085044082</v>
       </c>
       <c r="AD4">
-        <v>0.1355026769926248</v>
+        <v>0.1300684932490609</v>
       </c>
       <c r="AE4">
-        <v>0.1355026769926248</v>
+        <v>0.131271588314104</v>
       </c>
       <c r="AF4">
-        <v>0.1442085697525559</v>
+        <v>0.1477008751017121</v>
       </c>
       <c r="AG4">
-        <v>0.1474410080190583</v>
+        <v>0.1600880251863345</v>
       </c>
       <c r="AH4">
-        <v>0.1474410080190583</v>
+        <v>0.1601884734567093</v>
       </c>
       <c r="AI4">
-        <v>0.1551355679791939</v>
+        <v>0.1758708927159778</v>
       </c>
       <c r="AJ4">
-        <v>0.2131791940303183</v>
+        <v>0.2287360104432394</v>
       </c>
       <c r="AK4">
-        <v>0.3071400716173674</v>
+        <v>0.3081259564810377</v>
       </c>
       <c r="AL4">
-        <v>0.3388189489661912</v>
+        <v>0.3415207527645912</v>
       </c>
       <c r="AM4">
-        <v>0.3388189489661912</v>
+        <v>0.3451826658819817</v>
       </c>
       <c r="AN4">
-        <v>0.3639988797140759</v>
+        <v>0.3737780013098836</v>
       </c>
       <c r="AO4">
-        <v>0.4353638202534174</v>
+        <v>0.4364808868105842</v>
       </c>
       <c r="AP4">
-        <v>0.5299646363995535</v>
+        <v>0.5163434263705261</v>
       </c>
       <c r="AQ4">
-        <v>0.6495868128021147</v>
+        <v>0.6146841973239237</v>
       </c>
       <c r="AR4">
-        <v>0.7431876664431322</v>
+        <v>0.6938082662985336</v>
       </c>
       <c r="AS4">
-        <v>0.7582387182739971</v>
+        <v>0.7149234421161313</v>
       </c>
       <c r="AT4">
-        <v>0.7582387182739971</v>
+        <v>0.7166689511205084</v>
       </c>
       <c r="AU4">
-        <v>0.7582387182739971</v>
+        <v>0.7200418246685356</v>
       </c>
       <c r="AV4">
-        <v>0.7582387182739971</v>
+        <v>0.7224127120033643</v>
       </c>
       <c r="AW4">
-        <v>0.7752698400444253</v>
+        <v>0.7449901660561782</v>
       </c>
       <c r="AX4">
-        <v>0.8056621090065833</v>
+        <v>0.7774348042652733</v>
       </c>
       <c r="AY4">
-        <v>0.8056621090065833</v>
+        <v>0.7859623766809632</v>
       </c>
       <c r="AZ4">
-        <v>0.8161182473811657</v>
+        <v>0.8036842168362326</v>
       </c>
       <c r="BA4">
-        <v>0.827568089870018</v>
+        <v>0.8221399057659863</v>
       </c>
       <c r="BB4">
-        <v>0.9115564797922593</v>
+        <v>0.8941651868635011</v>
       </c>
       <c r="BC4">
-        <v>0.967085606962542</v>
+        <v>0.9451733515041755</v>
       </c>
       <c r="BD4">
-        <v>0.9878821028566144</v>
+        <v>0.970531527852923</v>
       </c>
       <c r="BE4">
-        <v>0.9896353190567732</v>
+        <v>0.9818262749928579</v>
       </c>
       <c r="BF4">
-        <v>0.9896353190567732</v>
+        <v>0.9823457010000443</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -6682,97 +6682,97 @@
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.3720174631488403</v>
+        <v>0.32604483153965</v>
       </c>
       <c r="CO5">
-        <v>0.4705791374734877</v>
+        <v>0.4197772119890493</v>
       </c>
       <c r="CP5">
-        <v>0.6627809297198046</v>
+        <v>0.5930608990986591</v>
       </c>
       <c r="CQ5">
-        <v>0.6627809297198046</v>
+        <v>0.5986238699829195</v>
       </c>
       <c r="CR5">
-        <v>0.7377739054043382</v>
+        <v>0.6723336274933966</v>
       </c>
       <c r="CS5">
-        <v>0.8030544727192637</v>
+        <v>0.7377922764644099</v>
       </c>
       <c r="CT5">
-        <v>0.8374165851413177</v>
+        <v>0.7769843685233507</v>
       </c>
       <c r="CU5">
-        <v>0.8374165851413177</v>
+        <v>0.7770573763841223</v>
       </c>
       <c r="CV5">
-        <v>0.8374165851413177</v>
+        <v>0.7773482042273958</v>
       </c>
       <c r="CW5">
-        <v>0.8742470077876557</v>
+        <v>0.8186372319581692</v>
       </c>
       <c r="CX5">
-        <v>0.8742470077876557</v>
+        <v>0.8251523790906298</v>
       </c>
       <c r="CY5">
-        <v>0.8742470077876557</v>
+        <v>0.8251905922788589</v>
       </c>
       <c r="CZ5">
-        <v>0.9205631192684144</v>
+        <v>0.8745381205551096</v>
       </c>
       <c r="DA5">
-        <v>0.9205631192684144</v>
+        <v>0.8785227514703586</v>
       </c>
       <c r="DB5">
-        <v>0.9918884838105899</v>
+        <v>0.9491167156096635</v>
       </c>
       <c r="DC5">
-        <v>0.9918884838105899</v>
+        <v>0.9491438513763979</v>
       </c>
       <c r="DD5">
-        <v>0.9918884838105899</v>
+        <v>0.9494246972971732</v>
       </c>
       <c r="DE5">
-        <v>0.9918884838105899</v>
+        <v>0.9559482577194202</v>
       </c>
       <c r="DF5">
-        <v>0.9918884838105899</v>
+        <v>0.9595460712494894</v>
       </c>
       <c r="DG5">
-        <v>0.9918884838105899</v>
+        <v>0.9643638650383852</v>
       </c>
       <c r="DH5">
-        <v>0.9918884838105899</v>
+        <v>0.9645781593550948</v>
       </c>
       <c r="DI5">
-        <v>1</v>
+        <v>0.9814692411497891</v>
       </c>
       <c r="DJ5">
-        <v>1</v>
+        <v>0.9829050871901542</v>
       </c>
       <c r="DK5">
-        <v>1</v>
+        <v>0.9858407352844835</v>
       </c>
       <c r="DL5">
-        <v>1</v>
+        <v>0.985841581432665</v>
       </c>
       <c r="DM5">
-        <v>1</v>
+        <v>0.9868132112643895</v>
       </c>
       <c r="DN5">
-        <v>1</v>
+        <v>0.9868133322540615</v>
       </c>
       <c r="DO5">
-        <v>1</v>
+        <v>0.9885330850434811</v>
       </c>
       <c r="DP5">
-        <v>1</v>
+        <v>0.9938248555780077</v>
       </c>
       <c r="DQ5">
-        <v>1</v>
+        <v>0.9961892057692824</v>
       </c>
       <c r="DR5">
-        <v>1</v>
+        <v>0.9999748178978278</v>
       </c>
       <c r="DS5">
         <v>1</v>
@@ -7053,97 +7053,97 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.003910122905935161</v>
+        <v>0.0130890603795321</v>
       </c>
       <c r="CO6">
-        <v>0.2585643791435399</v>
+        <v>0.2242700442889533</v>
       </c>
       <c r="CP6">
-        <v>0.5611886729536147</v>
+        <v>0.4733481342573319</v>
       </c>
       <c r="CQ6">
-        <v>0.6428341826681228</v>
+        <v>0.5478494083331327</v>
       </c>
       <c r="CR6">
-        <v>0.6428341826681228</v>
+        <v>0.5487584327487577</v>
       </c>
       <c r="CS6">
-        <v>0.7332655175723072</v>
+        <v>0.6302006509196222</v>
       </c>
       <c r="CT6">
-        <v>0.7332655175723072</v>
+        <v>0.6348185214795843</v>
       </c>
       <c r="CU6">
-        <v>0.7480969649726978</v>
+        <v>0.656535604967195</v>
       </c>
       <c r="CV6">
-        <v>0.7480969649726978</v>
+        <v>0.6580806984407084</v>
       </c>
       <c r="CW6">
-        <v>0.7617346144258158</v>
+        <v>0.6788546622288106</v>
       </c>
       <c r="CX6">
-        <v>0.7904634282315205</v>
+        <v>0.7115508901001779</v>
       </c>
       <c r="CY6">
-        <v>0.7904634282315205</v>
+        <v>0.7209296077325553</v>
       </c>
       <c r="CZ6">
-        <v>0.7904634282315205</v>
+        <v>0.7221393459606403</v>
       </c>
       <c r="DA6">
-        <v>0.8695557564404277</v>
+        <v>0.7946235653247505</v>
       </c>
       <c r="DB6">
-        <v>0.8695557564404277</v>
+        <v>0.7959594975009137</v>
       </c>
       <c r="DC6">
-        <v>0.9712041047250218</v>
+        <v>0.8862633377853721</v>
       </c>
       <c r="DD6">
-        <v>0.9712041047250218</v>
+        <v>0.8914202878500763</v>
       </c>
       <c r="DE6">
-        <v>0.9712041047250218</v>
+        <v>0.9003236174087295</v>
       </c>
       <c r="DF6">
-        <v>0.9739891937624101</v>
+        <v>0.9125238828238668</v>
       </c>
       <c r="DG6">
-        <v>0.9739891937624101</v>
+        <v>0.9172322603147005</v>
       </c>
       <c r="DH6">
-        <v>0.9739891937624101</v>
+        <v>0.925975163832423</v>
       </c>
       <c r="DI6">
-        <v>0.9889183598531539</v>
+        <v>0.9477694466669522</v>
       </c>
       <c r="DJ6">
-        <v>0.9889183598531539</v>
+        <v>0.9521977742234486</v>
       </c>
       <c r="DK6">
-        <v>0.9889183598531539</v>
+        <v>0.9594068432491456</v>
       </c>
       <c r="DL6">
-        <v>0.9889183598531539</v>
+        <v>0.9599717681290781</v>
       </c>
       <c r="DM6">
-        <v>0.989515904561528</v>
+        <v>0.9704438381197261</v>
       </c>
       <c r="DN6">
-        <v>1</v>
+        <v>0.9887264431971928</v>
       </c>
       <c r="DO6">
-        <v>1</v>
+        <v>0.9929959009985569</v>
       </c>
       <c r="DP6">
-        <v>1</v>
+        <v>0.9947266894176164</v>
       </c>
       <c r="DQ6">
-        <v>1</v>
+        <v>0.9990483760761876</v>
       </c>
       <c r="DR6">
-        <v>1</v>
+        <v>0.9990716526986037</v>
       </c>
       <c r="DS6">
         <v>1</v>
@@ -7424,100 +7424,100 @@
         <v>0</v>
       </c>
       <c r="CN7">
-        <v>0.461778709020924</v>
+        <v>0.3838799781225991</v>
       </c>
       <c r="CO7">
-        <v>0.5186800412523106</v>
+        <v>0.4399502460544487</v>
       </c>
       <c r="CP7">
-        <v>0.7178292415777658</v>
+        <v>0.6111917611054176</v>
       </c>
       <c r="CQ7">
-        <v>0.7388531752110321</v>
+        <v>0.6382138275049761</v>
       </c>
       <c r="CR7">
-        <v>0.7513544000982477</v>
+        <v>0.6583354671475827</v>
       </c>
       <c r="CS7">
-        <v>0.7688766681817331</v>
+        <v>0.6825224036167887</v>
       </c>
       <c r="CT7">
-        <v>0.7688766681817331</v>
+        <v>0.6912935455279056</v>
       </c>
       <c r="CU7">
-        <v>0.7688766681817331</v>
+        <v>0.6961906771060924</v>
       </c>
       <c r="CV7">
-        <v>0.7838165089066282</v>
+        <v>0.7182867465312547</v>
       </c>
       <c r="CW7">
-        <v>0.8819591207351758</v>
+        <v>0.8077480920773731</v>
       </c>
       <c r="CX7">
-        <v>0.9105976935183175</v>
+        <v>0.8409353650209993</v>
       </c>
       <c r="CY7">
-        <v>0.9282392387305598</v>
+        <v>0.8652188744361186</v>
       </c>
       <c r="CZ7">
-        <v>0.9463544326381488</v>
+        <v>0.8898858743855448</v>
       </c>
       <c r="DA7">
-        <v>0.9463544326381488</v>
+        <v>0.8945626699130058</v>
       </c>
       <c r="DB7">
-        <v>0.9958649834801581</v>
+        <v>0.9446489781468692</v>
       </c>
       <c r="DC7">
-        <v>0.9958649834801581</v>
+        <v>0.9488472486262194</v>
       </c>
       <c r="DD7">
-        <v>0.9958649834801581</v>
+        <v>0.9502726360426096</v>
       </c>
       <c r="DE7">
-        <v>0.9958649834801581</v>
+        <v>0.9502738831886348</v>
       </c>
       <c r="DF7">
-        <v>0.9958649834801581</v>
+        <v>0.9509895885405473</v>
       </c>
       <c r="DG7">
-        <v>0.9991958473721783</v>
+        <v>0.9636864285956427</v>
       </c>
       <c r="DH7">
-        <v>0.9991958473721783</v>
+        <v>0.9637049482824667</v>
       </c>
       <c r="DI7">
-        <v>0.9991958473721783</v>
+        <v>0.9640706911232</v>
       </c>
       <c r="DJ7">
-        <v>0.9991958473721783</v>
+        <v>0.9693156842505007</v>
       </c>
       <c r="DK7">
-        <v>0.9991958473721783</v>
+        <v>0.9694637073673078</v>
       </c>
       <c r="DL7">
-        <v>0.9991958473721783</v>
+        <v>0.970930034366376</v>
       </c>
       <c r="DM7">
-        <v>0.9991958473721783</v>
+        <v>0.9720000584227592</v>
       </c>
       <c r="DN7">
-        <v>0.9991958473721783</v>
+        <v>0.9767701603587702</v>
       </c>
       <c r="DO7">
-        <v>0.9991958473721783</v>
+        <v>0.9819172906625521</v>
       </c>
       <c r="DP7">
-        <v>0.9991958473721783</v>
+        <v>0.9889037734029811</v>
       </c>
       <c r="DQ7">
-        <v>0.9991958473721783</v>
+        <v>0.9892081434387798</v>
       </c>
       <c r="DR7">
-        <v>0.9999999999999999</v>
+        <v>0.9998592270877741</v>
       </c>
       <c r="DS7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:123">
@@ -7795,100 +7795,100 @@
         <v>0</v>
       </c>
       <c r="CN8">
-        <v>0.3758820627906678</v>
+        <v>0.3141651032230678</v>
       </c>
       <c r="CO8">
-        <v>0.3853009022697826</v>
+        <v>0.3317868616574466</v>
       </c>
       <c r="CP8">
-        <v>0.655331553335618</v>
+        <v>0.5602966257175985</v>
       </c>
       <c r="CQ8">
-        <v>0.6905125152697923</v>
+        <v>0.5987651853470436</v>
       </c>
       <c r="CR8">
-        <v>0.6905125152697923</v>
+        <v>0.6059385062214794</v>
       </c>
       <c r="CS8">
-        <v>0.6905125152697923</v>
+        <v>0.6136466309511935</v>
       </c>
       <c r="CT8">
-        <v>0.6938475891842613</v>
+        <v>0.6263453846345156</v>
       </c>
       <c r="CU8">
-        <v>0.6938475891842613</v>
+        <v>0.6266980027872421</v>
       </c>
       <c r="CV8">
-        <v>0.6938475891842613</v>
+        <v>0.6319312738143353</v>
       </c>
       <c r="CW8">
-        <v>0.8771523032018345</v>
+        <v>0.7902621009000654</v>
       </c>
       <c r="CX8">
-        <v>0.8888493619726163</v>
+        <v>0.8097274024949503</v>
       </c>
       <c r="CY8">
-        <v>0.8888493619726163</v>
+        <v>0.8161365050941017</v>
       </c>
       <c r="CZ8">
-        <v>0.9222479260630205</v>
+        <v>0.8531627420436354</v>
       </c>
       <c r="DA8">
-        <v>0.9222479260630205</v>
+        <v>0.8572089937323153</v>
       </c>
       <c r="DB8">
-        <v>0.9561079761512533</v>
+        <v>0.8946086667940256</v>
       </c>
       <c r="DC8">
-        <v>0.9777240390060367</v>
+        <v>0.9221004618019802</v>
       </c>
       <c r="DD8">
-        <v>0.9777240390060367</v>
+        <v>0.9246779044200476</v>
       </c>
       <c r="DE8">
-        <v>0.9777240390060367</v>
+        <v>0.9246779371950788</v>
       </c>
       <c r="DF8">
-        <v>0.9777240390060367</v>
+        <v>0.92497596682025</v>
       </c>
       <c r="DG8">
-        <v>0.9885644677238172</v>
+        <v>0.9437480803269334</v>
       </c>
       <c r="DH8">
-        <v>1</v>
+        <v>0.9630017537514429</v>
       </c>
       <c r="DI8">
-        <v>1</v>
+        <v>0.9634877211587514</v>
       </c>
       <c r="DJ8">
-        <v>1</v>
+        <v>0.9651413860386088</v>
       </c>
       <c r="DK8">
-        <v>1</v>
+        <v>0.9702694900514398</v>
       </c>
       <c r="DL8">
-        <v>1</v>
+        <v>0.9712383513320696</v>
       </c>
       <c r="DM8">
-        <v>1</v>
+        <v>0.9788187277007553</v>
       </c>
       <c r="DN8">
-        <v>1</v>
+        <v>0.9887018239433307</v>
       </c>
       <c r="DO8">
-        <v>1</v>
+        <v>0.9888071071129086</v>
       </c>
       <c r="DP8">
-        <v>1</v>
+        <v>0.9888434149053695</v>
       </c>
       <c r="DQ8">
-        <v>1</v>
+        <v>0.9889721852919093</v>
       </c>
       <c r="DR8">
-        <v>1</v>
+        <v>0.9974681641100306</v>
       </c>
       <c r="DS8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:123">
@@ -7902,97 +7902,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007987760524222634</v>
+        <v>0.01326566651083248</v>
       </c>
       <c r="E9">
-        <v>0.01252751452254998</v>
+        <v>0.02353021141716859</v>
       </c>
       <c r="F9">
-        <v>0.01252751452254998</v>
+        <v>0.02353021141716859</v>
       </c>
       <c r="G9">
-        <v>0.01252751452254998</v>
+        <v>0.02353021141716859</v>
       </c>
       <c r="H9">
-        <v>0.01252751452254998</v>
+        <v>0.02353021141716859</v>
       </c>
       <c r="I9">
-        <v>0.01252751452254998</v>
+        <v>0.0276089525473722</v>
       </c>
       <c r="J9">
-        <v>0.0276540890117161</v>
+        <v>0.04708819454298697</v>
       </c>
       <c r="K9">
-        <v>0.0276540890117161</v>
+        <v>0.04792661709688631</v>
       </c>
       <c r="L9">
-        <v>0.03375167901390877</v>
+        <v>0.0595470919448714</v>
       </c>
       <c r="M9">
-        <v>0.04108402123112084</v>
+        <v>0.07224228678565937</v>
       </c>
       <c r="N9">
-        <v>0.04108402123112084</v>
+        <v>0.07224228678565937</v>
       </c>
       <c r="O9">
-        <v>0.04108402123112084</v>
+        <v>0.07224228678565937</v>
       </c>
       <c r="P9">
-        <v>0.07887109643484402</v>
+        <v>0.1114450756343372</v>
       </c>
       <c r="Q9">
-        <v>0.1229169247670993</v>
+        <v>0.1560954409566036</v>
       </c>
       <c r="R9">
-        <v>0.1229169247670993</v>
+        <v>0.1560954409566036</v>
       </c>
       <c r="S9">
-        <v>0.1229169247670993</v>
+        <v>0.1560954409566036</v>
       </c>
       <c r="T9">
-        <v>0.1264079491287902</v>
+        <v>0.1654471786666227</v>
       </c>
       <c r="U9">
-        <v>0.1297249954108415</v>
+        <v>0.1746474870305561</v>
       </c>
       <c r="V9">
-        <v>0.1409917338232324</v>
+        <v>0.1907671537606291</v>
       </c>
       <c r="W9">
-        <v>0.1409917338232324</v>
+        <v>0.1907671537606291</v>
       </c>
       <c r="X9">
-        <v>0.1508676779406702</v>
+        <v>0.2056762825248813</v>
       </c>
       <c r="Y9">
-        <v>0.3291557475110989</v>
+        <v>0.3671701884234777</v>
       </c>
       <c r="Z9">
-        <v>0.4743339504493297</v>
+        <v>0.4998454899123619</v>
       </c>
       <c r="AA9">
-        <v>0.4743339504493297</v>
+        <v>0.4998454899123619</v>
       </c>
       <c r="AB9">
-        <v>0.6851727975147057</v>
+        <v>0.6896713728097188</v>
       </c>
       <c r="AC9">
-        <v>0.8288912224033513</v>
+        <v>0.8210760933384227</v>
       </c>
       <c r="AD9">
-        <v>0.8492600951263138</v>
+        <v>0.8451181963287899</v>
       </c>
       <c r="AE9">
-        <v>0.8492600951263138</v>
+        <v>0.8451181963287899</v>
       </c>
       <c r="AF9">
-        <v>0.8531653963809006</v>
+        <v>0.8548305178498244</v>
       </c>
       <c r="AG9">
-        <v>0.9244511024073321</v>
+        <v>0.9231902888352963</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9952607129815004</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -8285,97 +8285,97 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01688681928300778</v>
+        <v>0.02308468154973721</v>
       </c>
       <c r="I10">
-        <v>0.02080246151091006</v>
+        <v>0.03611870061254317</v>
       </c>
       <c r="J10">
-        <v>0.02080246151091006</v>
+        <v>0.04367855710268705</v>
       </c>
       <c r="K10">
-        <v>0.02080246151091006</v>
+        <v>0.05238275136073856</v>
       </c>
       <c r="L10">
-        <v>0.02080246151091006</v>
+        <v>0.05264103900425851</v>
       </c>
       <c r="M10">
-        <v>0.02080246151091006</v>
+        <v>0.05319570816752484</v>
       </c>
       <c r="N10">
-        <v>0.02174651292069204</v>
+        <v>0.06392720246829038</v>
       </c>
       <c r="O10">
-        <v>0.02174651292069204</v>
+        <v>0.06572021435430049</v>
       </c>
       <c r="P10">
-        <v>0.02267045047219897</v>
+        <v>0.0764361235158012</v>
       </c>
       <c r="Q10">
-        <v>0.02267045047219897</v>
+        <v>0.07985011681232849</v>
       </c>
       <c r="R10">
-        <v>0.04078284971105955</v>
+        <v>0.1038844338835526</v>
       </c>
       <c r="S10">
-        <v>0.04078284971105955</v>
+        <v>0.1062554233545306</v>
       </c>
       <c r="T10">
-        <v>0.05065836863644958</v>
+        <v>0.1239074280400522</v>
       </c>
       <c r="U10">
-        <v>0.05065836863644958</v>
+        <v>0.1314381674821434</v>
       </c>
       <c r="V10">
-        <v>0.05065836863644958</v>
+        <v>0.1350187147285094</v>
       </c>
       <c r="W10">
-        <v>0.05065836863644958</v>
+        <v>0.1370995595875707</v>
       </c>
       <c r="X10">
-        <v>0.05065836863644958</v>
+        <v>0.1435029885901062</v>
       </c>
       <c r="Y10">
-        <v>0.1465284540649023</v>
+        <v>0.2277875247691405</v>
       </c>
       <c r="Z10">
-        <v>0.225913693792849</v>
+        <v>0.2992988469537122</v>
       </c>
       <c r="AA10">
-        <v>0.225913693792849</v>
+        <v>0.2993140932472314</v>
       </c>
       <c r="AB10">
-        <v>0.3560984801046679</v>
+        <v>0.410187232407594</v>
       </c>
       <c r="AC10">
-        <v>0.5231136835040275</v>
+        <v>0.5495982667664557</v>
       </c>
       <c r="AD10">
-        <v>0.611968518842896</v>
+        <v>0.6284470656479197</v>
       </c>
       <c r="AE10">
-        <v>0.6421872560825073</v>
+        <v>0.6618619282688141</v>
       </c>
       <c r="AF10">
-        <v>0.6421872560825073</v>
+        <v>0.6627449426583431</v>
       </c>
       <c r="AG10">
-        <v>0.6733837808351026</v>
+        <v>0.6969174398589822</v>
       </c>
       <c r="AH10">
-        <v>0.6901620523488911</v>
+        <v>0.7199180136220862</v>
       </c>
       <c r="AI10">
-        <v>0.6901620523488911</v>
+        <v>0.7199233574366286</v>
       </c>
       <c r="AJ10">
-        <v>0.7052457616559107</v>
+        <v>0.7416109067354926</v>
       </c>
       <c r="AK10">
-        <v>0.8316853656722983</v>
+        <v>0.8495821070013742</v>
       </c>
       <c r="AL10">
-        <v>0.9601096545957739</v>
+        <v>0.9590911320968225</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -8710,298 +8710,298 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.1054327513334213</v>
+        <v>0.08745132606304867</v>
       </c>
       <c r="AA11">
-        <v>0.1239301530035184</v>
+        <v>0.1110395922322512</v>
       </c>
       <c r="AB11">
-        <v>0.1499534772181909</v>
+        <v>0.1401564315777508</v>
       </c>
       <c r="AC11">
-        <v>0.2736155608237651</v>
+        <v>0.2409990989447669</v>
       </c>
       <c r="AD11">
-        <v>0.2969946858825595</v>
+        <v>0.2681734988830856</v>
       </c>
       <c r="AE11">
-        <v>0.3016554632226733</v>
+        <v>0.2815973247902256</v>
       </c>
       <c r="AF11">
-        <v>0.3016554632226733</v>
+        <v>0.2823063986280275</v>
       </c>
       <c r="AG11">
-        <v>0.3103911789788167</v>
+        <v>0.2987236907964119</v>
       </c>
       <c r="AH11">
-        <v>0.353390072084757</v>
+        <v>0.340310851789361</v>
       </c>
       <c r="AI11">
-        <v>0.3709132747555426</v>
+        <v>0.3631834674288021</v>
       </c>
       <c r="AJ11">
-        <v>0.3709132747555426</v>
+        <v>0.363227875671656</v>
       </c>
       <c r="AK11">
-        <v>0.3918312569786553</v>
+        <v>0.388594310116868</v>
       </c>
       <c r="AL11">
-        <v>0.4705484781920728</v>
+        <v>0.4564202995733805</v>
       </c>
       <c r="AM11">
-        <v>0.5038132070033899</v>
+        <v>0.4908567040585163</v>
       </c>
       <c r="AN11">
-        <v>0.5038132070033899</v>
+        <v>0.4959036461569812</v>
       </c>
       <c r="AO11">
-        <v>0.5141021642749043</v>
+        <v>0.5134619558321668</v>
       </c>
       <c r="AP11">
-        <v>0.5763208135653753</v>
+        <v>0.5691680275456836</v>
       </c>
       <c r="AQ11">
-        <v>0.676303055308315</v>
+        <v>0.6526153871925742</v>
       </c>
       <c r="AR11">
-        <v>0.7815653059021106</v>
+        <v>0.7399414627218776</v>
       </c>
       <c r="AS11">
-        <v>0.8443863258980114</v>
+        <v>0.7960900383948096</v>
       </c>
       <c r="AT11">
-        <v>0.8443863258980114</v>
+        <v>0.7971261890909369</v>
       </c>
       <c r="AU11">
-        <v>0.8657342845735087</v>
+        <v>0.8228084859791933</v>
       </c>
       <c r="AV11">
-        <v>0.8838562022723733</v>
+        <v>0.8461209201026645</v>
       </c>
       <c r="AW11">
-        <v>0.8838562022723733</v>
+        <v>0.8471891351933737</v>
       </c>
       <c r="AX11">
-        <v>0.8971170314571497</v>
+        <v>0.8669305940101744</v>
       </c>
       <c r="AY11">
-        <v>0.8971170314571497</v>
+        <v>0.8750625511906588</v>
       </c>
       <c r="AZ11">
-        <v>0.8971170314571497</v>
+        <v>0.875069239881081</v>
       </c>
       <c r="BA11">
-        <v>0.8971170314571497</v>
+        <v>0.8844217546998534</v>
       </c>
       <c r="BB11">
-        <v>0.900103029339998</v>
+        <v>0.8966152808359275</v>
       </c>
       <c r="BC11">
-        <v>0.9375413816489589</v>
+        <v>0.9341176460428711</v>
       </c>
       <c r="BD11">
-        <v>0.9756239414262021</v>
+        <v>0.9720932486646328</v>
       </c>
       <c r="BE11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CP11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CR11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CS11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CT11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CU11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6160060516334942</v>
+        <v>0.5352697325531949</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6063937588551307</v>
+        <v>0.5249873543585845</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5299646363995535</v>
+        <v>0.5163434263705261</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6627809297198046</v>
+        <v>0.5930608990986591</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -9233,16 +9233,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5611886729536147</v>
+        <v>0.5478494083331327</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -9274,16 +9274,16 @@
         <v>89</v>
       </c>
       <c r="D7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5186800412523106</v>
+        <v>0.6111917611054176</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>24</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.655331553335618</v>
+        <v>0.5602966257175985</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -9353,19 +9353,19 @@
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>27</v>
       </c>
       <c r="E9">
-        <v>0.04108402123112084</v>
+        <v>0.04708819454298697</v>
       </c>
       <c r="F9">
-        <v>0.6851727975147057</v>
+        <v>0.6896713728097188</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <v>24</v>
@@ -9394,19 +9394,19 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
       <c r="E10">
-        <v>0.04078284971105955</v>
+        <v>0.03611870061254317</v>
       </c>
       <c r="F10">
-        <v>0.5231136835040275</v>
+        <v>0.5495982667664557</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>24</v>
@@ -9438,16 +9438,16 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5038132070033899</v>
+        <v>0.5134619558321668</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <v>24</v>
@@ -9533,16 +9533,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.723543601659374</v>
+        <v>0.740201271679762</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8004823968078154</v>
+        <v>0.7056076281466962</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -9615,16 +9615,16 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7431876664431322</v>
+        <v>0.7149234421161313</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -9656,16 +9656,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7377739054043382</v>
+        <v>0.7377922764644099</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -9697,16 +9697,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7332655175723072</v>
+        <v>0.7115508901001779</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -9738,16 +9738,16 @@
         <v>89</v>
       </c>
       <c r="D7">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7178292415777658</v>
+        <v>0.7182867465312547</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>24</v>
@@ -9785,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8771523032018345</v>
+        <v>0.7902621009000654</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -9817,19 +9817,19 @@
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>28</v>
       </c>
       <c r="E9">
-        <v>0.04108402123112084</v>
+        <v>0.04708819454298697</v>
       </c>
       <c r="F9">
-        <v>0.8288912224033513</v>
+        <v>0.8210760933384227</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>24</v>
@@ -9858,19 +9858,19 @@
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>0.04078284971105955</v>
+        <v>0.03611870061254317</v>
       </c>
       <c r="F10">
-        <v>0.7052457616559107</v>
+        <v>0.7199180136220862</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <v>24</v>
@@ -9908,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7815653059021106</v>
+        <v>0.7399414627218776</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -9997,16 +9997,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8289127467678282</v>
+        <v>0.8065548851938541</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -10038,16 +10038,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8004823968078154</v>
+        <v>0.8001306140708099</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -10079,16 +10079,16 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8056621090065833</v>
+        <v>0.8036842168362326</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -10120,16 +10120,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8030544727192637</v>
+        <v>0.8186372319581692</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -10161,16 +10161,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8695557564404277</v>
+        <v>0.8862633377853721</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8819591207351758</v>
+        <v>0.8077480920773731</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -10243,16 +10243,16 @@
         <v>89</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8771523032018345</v>
+        <v>0.8097274024949503</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>24</v>
@@ -10281,19 +10281,19 @@
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>28</v>
       </c>
       <c r="E9">
-        <v>0.04108402123112084</v>
+        <v>0.04708819454298697</v>
       </c>
       <c r="F9">
-        <v>0.8288912224033513</v>
+        <v>0.8210760933384227</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>24</v>
@@ -10322,19 +10322,19 @@
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>36</v>
       </c>
       <c r="E10">
-        <v>0.04078284971105955</v>
+        <v>0.03611870061254317</v>
       </c>
       <c r="F10">
-        <v>0.8316853656722983</v>
+        <v>0.8495821070013742</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>24</v>
@@ -10366,16 +10366,16 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8443863258980114</v>
+        <v>0.8228084859791933</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11">
         <v>24</v>
@@ -10461,16 +10461,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9368179900491541</v>
+        <v>0.9229240608543776</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -10502,16 +10502,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9056472962692736</v>
+        <v>0.9104869208836761</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -10543,16 +10543,16 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9115564797922593</v>
+        <v>0.9451733515041755</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -10584,16 +10584,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9205631192684144</v>
+        <v>0.9491167156096635</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -10625,16 +10625,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9712041047250218</v>
+        <v>0.9003236174087295</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -10666,16 +10666,16 @@
         <v>89</v>
       </c>
       <c r="D7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9105976935183175</v>
+        <v>0.9446489781468692</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>24</v>
@@ -10707,16 +10707,16 @@
         <v>89</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9222479260630205</v>
+        <v>0.9221004618019802</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>24</v>
@@ -10745,19 +10745,19 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>32</v>
       </c>
       <c r="E9">
-        <v>0.04108402123112084</v>
+        <v>0.04708819454298697</v>
       </c>
       <c r="F9">
-        <v>0.9244511024073321</v>
+        <v>0.9231902888352963</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>24</v>
@@ -10786,19 +10786,19 @@
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>37</v>
       </c>
       <c r="E10">
-        <v>0.04078284971105955</v>
+        <v>0.03611870061254317</v>
       </c>
       <c r="F10">
-        <v>0.9601096545957739</v>
+        <v>0.9590911320968225</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>24</v>
@@ -10830,16 +10830,16 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.900103029339998</v>
+        <v>0.9341176460428711</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>24</v>
